--- a/data/waived.xlsx
+++ b/data/waived.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820B93EE-E1B9-44D3-B2B5-A1F58B99FB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,22 +412,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -432,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -449,7 +461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -465,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
